--- a/testing-resukts.xlsx
+++ b/testing-resukts.xlsx
@@ -7,10 +7,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -699,6 +701,401 @@
 The frog went plop._x000d_
 The dog will stop._x000d_
 They pop back home.</t>
+  </si>
+  <si>
+    <t>Short i 0 examples</t>
+  </si>
+  <si>
+    <t>Kim and Min are kids._x000d_
+They sit in the pen._x000d_
+A big pig hid._x000d_
+It was in a bin._x000d_
+A lid was on it._x000d_
+The wind did flip it._x000d_
+The lid slid and did slip._x000d_
+Min got his fix kit._x000d_
+Kim got a hint to tilt._x000d_
+Kim did a tilt up._x000d_
+Min had a good grip._x000d_
+The lid came off._x000d_
+The bin brim had a drip._x000d_
+The pig did a jig._x000d_
+It got a fig gift.</t>
+  </si>
+  <si>
+    <t>Kim and Tim are kids._x000d_
+They sit and plan it._x000d_
+They plan a skit._x000d_
+Kim made a list._x000d_
+Tim put it in his kit._x000d_
+The kit was in a bin._x000d_
+They had a pig mask._x000d_
+They clip the mask on._x000d_
+Kim did a jig._x000d_
+Tim did a flip._x000d_
+Tim slid and did slip._x000d_
+Kim said, get a grip._x000d_
+Tim did not quit._x000d_
+The kids did the skit._x000d_
+They did win a gift.</t>
+  </si>
+  <si>
+    <t>Sit, pig Gig, sit._x000d_
+Kim and Tim jig._x000d_
+They pet pig Gig._x000d_
+The pig is big._x000d_
+Its bin lid slid._x000d_
+It hit his lip._x000d_
+Kim had a kit._x000d_
+Kim can fix it._x000d_
+Tim lit the lamp._x000d_
+The kids made a list._x000d_
+Dab the lid drip._x000d_
+Get a good grip._x000d_
+Clip it, then flip._x000d_
+Do not slip, Tim._x000d_
+The lid did fit.</t>
+  </si>
+  <si>
+    <t>Sam and Pam sat._x000d_
+Dad sat with Sam and Pam._x000d_
+Dad had a map._x000d_
+Dad had a plan._x000d_
+We can go in the van._x000d_
+The van has gas._x000d_
+We went to sand at last._x000d_
+Sam put on a hat._x000d_
+Sam set a mat._x000d_
+Pam and Dad plant a flag._x000d_
+The flag went flap, flap._x000d_
+They clap as it did flap._x000d_
+They scan the sand._x000d_
+A crab ran past._x000d_
+Do not grab that crab.</t>
+  </si>
+  <si>
+    <t>Sam and Pam had a plan._x000d_
+They got the map._x000d_
+They plan to plant a flag._x000d_
+Sam put on a hat._x000d_
+Pam had a pan._x000d_
+They went in the van._x000d_
+They sat at the sand._x000d_
+The flag had a tag._x000d_
+Sam can tap the sand._x000d_
+Sam sat as Pam pats._x000d_
+The flag went in fast._x000d_
+They clap and grin at it._x000d_
+Sam sat on a mat._x000d_
+Pam had ham and jam._x000d_
+The day was not sad.</t>
+  </si>
+  <si>
+    <t>Short a 0 examples</t>
+  </si>
+  <si>
+    <t>Sam and Pam plan._x000d_
+Dad and a cat come._x000d_
+They plan to plant._x000d_
+Dad has a map._x000d_
+Sam set a mat._x000d_
+Pam had a pan._x000d_
+The van has gas._x000d_
+They go to a pond._x000d_
+They pick a spot._x000d_
+The cat sat at mat._x000d_
+Sam can jab sand._x000d_
+Pam set the plant._x000d_
+Dad wet the sand._x000d_
+They tag it with flag._x000d_
+The flag can flap.</t>
+  </si>
+  <si>
+    <t>Literacy team decodable books</t>
+  </si>
+  <si>
+    <t>1st grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hat_x000d_
+The rat has a hat._x000d_
+The hat is on the rat._x000d_
+_x000d_
+ZAP!_x000d_
+The rat ran._x000d_
+_x000d_
+The hat sat._x000d_
+The rat ran._x000d_
+_x000d_
+A bat saw the hat._x000d_
+The bat has the hat._x000d_
+_x000d_
+The hat is on the bat._x000d_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pam has a ham._x000d_
+The ham is in a pan._x000d_
+_x000d_
+Pam can pat the ham._x000d_
+Pam can tap the pan._x000d_
+_x000d_
+A cat ran to the pan._x000d_
+The cat had the ham._x000d_
+_x000d_
+Pam is mad._x000d_
+No more ham!_x000d_
+_x000d_
+The cat took a nap._x000d_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tod’s New Job_x000d_
+Tod is a dog._x000d_
+_x000d_
+Tod got a job._x000d_
+His job was to jog._x000d_
+_x000d_
+Jog! Jog! Jog!_x000d_
+Tod got hot!_x000d_
+_x000d_
+So he got on a log._x000d_
+No more jog. His job is to nap._x000d_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Goes Fishing_x000d_
+Bob is a hog._x000d_
+Bob has a rod._x000d_
+_x000d_
+The rod can bob._x000d_
+Bob got a cod._x000d_
+_x000d_
+The cod got off._x000d_
+Bob did sob._x000d_
+_x000d_
+Bob sat on a log._x000d_
+Bob had no cod._x000d_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000d_
+_x000d_
+Kit and Her Pig_x000d_
+Kit is a kid._x000d_
+She has a pet pig._x000d_
+_x000d_
+The pig is big._x000d_
+The pig is by Kit._x000d_
+_x000d_
+The pig did not sit._x000d_
+He did a jig._x000d_
+_x000d_
+Jig! Jig! Jig!_x000d_
+_x000d_
+Kit did pat the pig._x000d_
+It was a big win!_x000d_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sid and The Lid_x000d_
+Sid is a kid._x000d_
+He has a big bin._x000d_
+The bin has a lid._x000d_
+The lid did not fit._x000d_
+Sid did not get it._x000d_
+“No lid, no fit!”_x000d_
+Sid did sit._x000d_
+A pig hid in the bin._x000d_
+Then the lid did fit._x000d_
+</t>
+  </si>
+  <si>
+    <t>The Cat and the Map_x000d_
+Jan had a cat._x000d_
+The cat was Sam._x000d_
+Sam sat on Jan’s lap._x000d_
+Jan had a map._x000d_
+“It is a map of the park,” said Jan._x000d_
+“I can run and hop at the park!”_x000d_
+Sam ran to the map._x000d_
+Sam sat on it._x000d_
+“Oh, Sam!” said Jan. “That is my map!”_x000d_
+Jan got the map._x000d_
+Sam ran to the mat._x000d_
+Jan ran to Sam._x000d_
+“Let’s go, Sam!” said Jan._x000d_
+Jan and Sam ran and ran._x000d_
+They ran up a path._x000d_
+They ran past a big rock._x000d_
+At last, they sat and had a nap._x000d_
+Jan had fun._x000d_
+Sam had fun.</t>
+  </si>
+  <si>
+    <t>Jobs on the Farm_x000d_
+A farm has lots of jobs._x000d_
+Farm hands can work on a farm._x000d_
+A dog can help, too!_x000d_
+Ron can chop logs._x000d_
+He can mop the shop._x000d_
+He can fix a box or a rod._x000d_
+Dot can drop corn for the hogs._x000d_
+The hogs trot to the food._x000d_
+The hogs do not stop!_x000d_
+Sol can jog to the pond._x000d_
+She can hop on a rock._x000d_
+She can spot a frog or a log._x000d_
+Jobs on a farm do not stop._x000d_
+A farm has lots to do!</t>
+  </si>
+  <si>
+    <t>Min, Kim, and the Big Dig_x000d_
+Min has a kit._x000d_
+Kim has a lid._x000d_
+They dig in the big pit._x000d_
+“Dig, Min! Dig, Kim!”_x000d_
+A bug is in the pit._x000d_
+The bug is big and red._x000d_
+Min can lift the lid._x000d_
+Kim can pin the bug in the kit._x000d_
+The bug will not slip._x000d_
+“Look, Kim! We did it!” said Min._x000d_
+Kim had a big grin._x000d_
+They put the bug in the kit._x000d_
+Min, Kim, and the bug sit in the sun._x000d_
+They had fun and did a big job.</t>
+  </si>
+  <si>
+    <t>The Lost Stamp_x000d_
+Stan had a red stamp on his desk._x000d_
+ He did not use the stamp a lot, but he liked it._x000d_
+ One day, Stan went to get the stamp._x000d_
+ The stamp was not on the desk!_x000d_
+Stan ran to Star._x000d_
+ “Star, I lost my red stamp. Can you help me?”_x000d_
+ “Yes,” said Star. “Let us stop and think. Did you set the stamp on a stand?”_x000d_
+Stan did stop and think._x000d_
+ “I did set the stamp on the big stand in class,” he said._x000d_
+ Star and Stan went to the stand._x000d_
+ The stamp was not there._x000d_
+Next, Star and Stan went to the steps._x000d_
+ “Did the stamp fall on the steps?” Star said._x000d_
+ Stan bent to look._x000d_
+There was no stamp on the steps._x000d_
+At last, Stan went to the back desk._x000d_
+ The stamp was stuck to a stack of pads!_x000d_
+ Stan held up the stamp._x000d_
+ “Here it is!” he said._x000d_
+Star and Stan clap._x000d_
+ “Next time, I will not lose my stamp,” Stan said._x000d_
+ Star and Stan went back to class with a big grin.</t>
+  </si>
+  <si>
+    <t>2nd grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish in the Pond_x000d_
+Fish can swim fast in a pond. A fish will swish its fins to dash and splash. Some fish can rush to get food. A fish can snap up a bug or a small bit of mash._x000d_
+Fish can hide in mud or in a big bush by the pond. This helps the fish when a crab or a bird rushes in._x000d_
+A fish has a soft body and the skin has fins. The fins can flash in the sun._x000d_
+Some fish live in fresh ponds. Some fish live in the big sea. Fish can be big or small. Fish can be red or tan. All fish can swim and splash!_x000d_
+</t>
+  </si>
+  <si>
+    <t>The Missing Ring_x000d_
+Ming was digging in the sand. She was hoping to find a shell._x000d_
+As she was digging, she saw a ring. The ring was shining in the sun._x000d_
+Ming went running to Dad._x000d_
+“Look! I found a ring!” she said._x000d_
+Dad was smiling. “That is Mom’s ring! She was missing it.”_x000d_
+Mom came rushing from the deck._x000d_
+“My ring! Thank you for bringing it to me, Ming!”_x000d_
+Mom gave Ming a big hug._x000d_
+Ming kept smiling. Finding the ring was the best part of the day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Camping Trip (I asked for a longer text)_x000d_
+Luis and Maya were going camping with Dad. They were packing a tent, a bag, and food. Maya was singing as she put on a red cap. Luis was humming as he looked at a map._x000d_
+When they got to the hill, Dad was lifting the big tent. Luis was helping by holding the tent up. Maya was running to get sticks for the fire._x000d_
+As night came, the kids were sitting by the fire. They were roasting nuts and sipping hot milk. The fire was crackling and popping. The kids were singing a silly song._x000d_
+Then Maya heard a rustling in the grass. “What is running in the dark?” she said. Luis was grabbing a lamp. The lamp was shining on a small dog!_x000d_
+The dog was wagging and licking. It was sniffing at the food and jumping at the bag. The kids were giggling. Dad was smiling._x000d_
+The dog kept resting by the fire. It was curling up and napping. Luis and Maya kept singing. Dad was humming. The fire was glowing, and the stars were twinkling._x000d_
+It was the best night of camping._x000d_
+</t>
+  </si>
+  <si>
+    <t>Examples of real decodable books</t>
+  </si>
+  <si>
+    <t>Val had a bag and a hat. 7_x000d_
+The bag had jam, ham, and a yam. 15_x000d_
+Val had the jam, ham, and yam. 22_x000d_
+Val ran to the mat to nap. 29_x000d_
+Nan is a rat. The rat had to nap. 38_x000d_
+Nan ran to the mat. 43_x000d_
+Val is on the mat! 48_x000d_
+Nan had to nap in the hat! 55</t>
+  </si>
+  <si>
+    <t>short a</t>
+  </si>
+  <si>
+    <t>Kim is kin to Quin. Kim is mad at him. 10_x000d_
+Kim had a wig. Quin hid it! 17_x000d_
+Is it in the big tin bin? 24_x000d_
+Is the wig in the van? 30_x000d_
+Is it in the bag? 35_x000d_
+The wig is in the pit! 41_x000d_
+Kim can dig for the wig! 47_x000d_
+Dig, Kim, dig! 50_x000d_
+ Did Kim quit? Did Kim sit? 56_x000d_
+Kim has the wig! 60</t>
+  </si>
+  <si>
+    <t>short i</t>
+  </si>
+  <si>
+    <t>The hog and the fox had a big job to do. 11_x000d_
+The job was to mop! 16_x000d_
+The hog did a lot. The fox did not. 25_x000d_
+The fox sat on top of a box. 33_x000d_
+The hog was mad. 37_x000d_
+“Are you on the job, fox? I am hot.” 46_x000d_
+The hog quit. 49_x000d_
+The fox got the mop. The hog sat on a cot. 60_x000d_
+The fox and the hog got a nod for the job. 71</t>
+  </si>
+  <si>
+    <t>short o</t>
+  </si>
+  <si>
+    <t>Jen was up for a fun gig in the sun. 10_x000d_
+Gus and I got to the gig. 17_x000d_
+Jen ran to the hut. She got a wig for me. 28_x000d_
+She got a big top hat for Gus. 36_x000d_
+Gus did a hop. I did a dip, and Jen did a jig. 49_x000d_
+Jen can cut a rug and be a nut! 58_x000d_
+Jen had a hug for us. She is a fun bud. 69_x000d_
+We had to run, but the gig was a big hit! 80</t>
+  </si>
+  <si>
+    <t>short u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jed, the vet, met Meg at the dam.  8_x000d_
+Meg was a red hen. The hen had a leg in a net.  21_x000d_
+The leg was so red! It was bad. 29_x000d_
+Jed was sad for Meg.  34_x000d_
+Meg let Jed rub and fix the leg.   42_x000d_
+“Can I get up to hop and run?”  50_x000d_
+“No, not yet, Meg.”    54_x000d_
+The leg is set, but she can not get up. 64_x000d_
+Meg has to go to bed for a bit.  73</t>
+  </si>
+  <si>
+    <t>short e</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1429,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1271,17 +1668,260 @@
         <v>0.50770000000000004</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>0.56579999999999997</v>
+      </c>
+    </row>
     <row r="24">
-      <c r="A24"/>
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>0.55559999999999998</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25"/>
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>0.67210000000000003</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26"/>
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>0.63009999999999999</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27"/>
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>0.57889999999999997</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28">
+        <v>0.57809999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.71094" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.42578" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
